--- a/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_eval.xlsx
+++ b/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_eval.xlsx
@@ -491,7 +491,7 @@
         <v>0.780177373260819</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7401809047638117</v>
+        <v>0.7414799316992706</v>
       </c>
       <c r="M2" t="n">
         <v>0.6050944581328428</v>
@@ -506,7 +506,7 @@
         <v>90</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.008954984241185193</v>
+        <v>-0.008954984241185193</v>
       </c>
       <c r="R2" t="n">
         <v>0.5793700981126689</v>
@@ -549,7 +549,7 @@
         <v>0.780177373260819</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7401809047638117</v>
+        <v>0.7414799316992706</v>
       </c>
       <c r="M3" t="n">
         <v>0.6050944581328428</v>
@@ -564,7 +564,7 @@
         <v>90</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.008954984241185193</v>
+        <v>-0.008954984241185193</v>
       </c>
       <c r="R3" t="n">
         <v>0.5793700981126689</v>
@@ -607,7 +607,7 @@
         <v>0.7326164215926239</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7074074074074074</v>
+        <v>0.7088701277621434</v>
       </c>
       <c r="M4" t="n">
         <v>0.5352941176470588</v>
@@ -622,7 +622,7 @@
         <v>100</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.016229058904976</v>
+        <v>-0.016229058904976</v>
       </c>
       <c r="R4" t="n">
         <v>0.6284902544988268</v>
@@ -665,7 +665,7 @@
         <v>0.7801773732608189</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7797696841910494</v>
+        <v>0.7808705382933501</v>
       </c>
       <c r="M5" t="n">
         <v>0.5493203316759259</v>
@@ -680,7 +680,7 @@
         <v>84.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.02351246133036377</v>
+        <v>0.02351246133036377</v>
       </c>
       <c r="R5" t="n">
         <v>0.6189327249996263</v>
@@ -723,7 +723,7 @@
         <v>0.7801773732608189</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7797696841910494</v>
+        <v>0.7808705382933501</v>
       </c>
       <c r="M6" t="n">
         <v>0.5493203316759259</v>
@@ -738,7 +738,7 @@
         <v>84.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.02351246133036377</v>
+        <v>0.02351246133036377</v>
       </c>
       <c r="R6" t="n">
         <v>0.6189327249996263</v>
@@ -781,7 +781,7 @@
         <v>0.7831550493332693</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7821229050279329</v>
+        <v>0.7832122299475502</v>
       </c>
       <c r="M7" t="n">
         <v>0.5411764705882354</v>
@@ -796,7 +796,7 @@
         <v>99</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01081937260331701</v>
+        <v>-0.01081937260331701</v>
       </c>
       <c r="R7" t="n">
         <v>0.6244997998398398</v>

--- a/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_eval.xlsx
+++ b/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_eval.xlsx
@@ -1,37 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28502"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbiggs/Desktop/rsmtool/tests/data/experiments/lr-with-xlsx-output/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>h_mean</t>
+  </si>
+  <si>
+    <t>h_sd</t>
+  </si>
+  <si>
+    <t>h_min</t>
+  </si>
+  <si>
+    <t>h_max</t>
+  </si>
+  <si>
+    <t>sys_mean</t>
+  </si>
+  <si>
+    <t>sys_sd</t>
+  </si>
+  <si>
+    <t>sys_min</t>
+  </si>
+  <si>
+    <t>sys_max</t>
+  </si>
+  <si>
+    <t>corr</t>
+  </si>
+  <si>
+    <t>wtkappa</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>kappa</t>
+  </si>
+  <si>
+    <t>exact_agr</t>
+  </si>
+  <si>
+    <t>adj_agr</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>raw_trim</t>
+  </si>
+  <si>
+    <t>raw_trim_round</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>scale_trim</t>
+  </si>
+  <si>
+    <t>scale_trim_round</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +136,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -112,12 +216,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -144,14 +248,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,456 +459,404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>h_mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>h_sd</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>h_min</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>h_max</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>sys_mean</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sys_sd</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sys_min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sys_max</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>corr</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>wtkappa</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>kappa</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>exact_agr</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>adj_agr</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>SMD</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>raw</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
         <v>200</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3.5</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.9242680113386591</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.92426801133865921</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.491723194523831</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6663994275646539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.595556849813105</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.701148289548308</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.780177373260819</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.7414799316992706</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.6050944581328428</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.3862885997281025</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="G2">
+        <v>3.4917231945238312</v>
+      </c>
+      <c r="H2">
+        <v>0.66639942756465309</v>
+      </c>
+      <c r="I2">
+        <v>1.5955568498131081</v>
+      </c>
+      <c r="J2">
+        <v>4.7011482895483061</v>
+      </c>
+      <c r="K2">
+        <v>0.78017737326081926</v>
+      </c>
+      <c r="L2">
+        <v>0.70740740740740748</v>
+      </c>
+      <c r="M2">
+        <v>0.60509445813284279</v>
+      </c>
+      <c r="N2">
+        <v>0.38628859972810248</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>90</v>
       </c>
-      <c r="Q2" t="n">
-        <v>-0.008954984241185193</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.5793700981126689</v>
+      <c r="Q2">
+        <v>-1.0272597151784531E-2</v>
+      </c>
+      <c r="R2">
+        <v>0.57937009811266893</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>raw_trim</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
         <v>200</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3.5</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.9242680113386591</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.92426801133865921</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" t="n">
-        <v>3.491723194523831</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6663994275646539</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.595556849813105</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.701148289548308</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.780177373260819</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7414799316992706</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.6050944581328428</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.3862885997281025</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="G3">
+        <v>3.4917231945238312</v>
+      </c>
+      <c r="H3">
+        <v>0.66639942756465309</v>
+      </c>
+      <c r="I3">
+        <v>1.5955568498131081</v>
+      </c>
+      <c r="J3">
+        <v>4.7011482895483061</v>
+      </c>
+      <c r="K3">
+        <v>0.78017737326081926</v>
+      </c>
+      <c r="L3">
+        <v>0.70740740740740748</v>
+      </c>
+      <c r="M3">
+        <v>0.60509445813284279</v>
+      </c>
+      <c r="N3">
+        <v>0.38628859972810248</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>90</v>
       </c>
-      <c r="Q3" t="n">
-        <v>-0.008954984241185193</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.5793700981126689</v>
+      <c r="Q3">
+        <v>-1.0272597151784531E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.57937009811266893</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>raw_trim_round</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
         <v>200</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3.5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.9242680113386591</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.92426801133865921</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.485</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7087216887896151</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="G4">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.70872168878961506</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.7326164215926239</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.7088701277621434</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.5352941176470588</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.3862885997281025</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K4">
+        <v>0.73261642159262386</v>
+      </c>
+      <c r="L4">
+        <v>0.70740740740740748</v>
+      </c>
+      <c r="M4">
+        <v>0.53529411764705881</v>
+      </c>
+      <c r="N4">
+        <v>0.38628859972810248</v>
+      </c>
+      <c r="O4">
         <v>60.5</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>100</v>
       </c>
-      <c r="Q4" t="n">
-        <v>-0.016229058904976</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.6284902544988268</v>
+      <c r="Q4">
+        <v>-1.82132356724155E-2</v>
+      </c>
+      <c r="R4">
+        <v>0.62849025449882678</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
         <v>200</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3.5</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.9242680113386591</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.92426801133865921</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3.521731815875492</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.9452175731243876</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8322190755397041</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.237174245609359</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.7801773732608189</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.7808705382933501</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.5493203316759259</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.4694178334561533</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="H5">
+        <v>0.94521757312438759</v>
+      </c>
+      <c r="I5">
+        <v>0.83221907553970498</v>
+      </c>
+      <c r="J5">
+        <v>5.23717424560936</v>
+      </c>
+      <c r="K5">
+        <v>0.78017737326081893</v>
+      </c>
+      <c r="L5">
+        <v>0.78212290502793302</v>
+      </c>
+      <c r="M5">
+        <v>0.54932033167592587</v>
+      </c>
+      <c r="N5">
+        <v>0.46941783345615329</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>84.5</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.02351246133036377</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.6189327249996263</v>
+      <c r="Q5">
+        <v>2.3247519735349519E-2</v>
+      </c>
+      <c r="R5">
+        <v>0.61893272499962626</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>scale_trim</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
         <v>200</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3.5</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.9242680113386591</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.92426801133865921</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>3.521731815875492</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.9452175731243876</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8322190755397041</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.237174245609359</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.7801773732608189</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.7808705382933501</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5493203316759259</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.4694178334561533</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="H6">
+        <v>0.94521757312438759</v>
+      </c>
+      <c r="I6">
+        <v>0.83221907553970498</v>
+      </c>
+      <c r="J6">
+        <v>5.23717424560936</v>
+      </c>
+      <c r="K6">
+        <v>0.78017737326081893</v>
+      </c>
+      <c r="L6">
+        <v>0.78212290502793302</v>
+      </c>
+      <c r="M6">
+        <v>0.54932033167592587</v>
+      </c>
+      <c r="N6">
+        <v>0.46941783345615329</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>84.5</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0.02351246133036377</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.6189327249996263</v>
+      <c r="Q6">
+        <v>2.3247519735349519E-2</v>
+      </c>
+      <c r="R6">
+        <v>0.61893272499962626</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>scale_trim_round</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
         <v>200</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3.5</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.9242680113386591</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.92426801133865921</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>3.49</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.9719172370000901</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7">
+        <v>0.97191723700009003</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="K7" t="n">
-        <v>0.7831550493332693</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.7832122299475502</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.5411764705882354</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.4694178334561533</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K7">
+        <v>0.78315504933326929</v>
+      </c>
+      <c r="L7">
+        <v>0.78212290502793302</v>
+      </c>
+      <c r="M7">
+        <v>0.54117647058823537</v>
+      </c>
+      <c r="N7">
+        <v>0.46941783345615329</v>
+      </c>
+      <c r="O7">
         <v>64</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>99</v>
       </c>
-      <c r="Q7" t="n">
-        <v>-0.01081937260331701</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.6244997998398398</v>
+      <c r="Q7">
+        <v>-1.054416404922412E-2</v>
+      </c>
+      <c r="R7">
+        <v>0.62449979983983983</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_eval.xlsx
+++ b/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_eval.xlsx
@@ -491,7 +491,7 @@
         <v>0.7801773732608193</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7414799316992704</v>
+        <v>0.7401809047638115</v>
       </c>
       <c r="M2" t="n">
         <v>0.6050944581328428</v>
@@ -549,7 +549,7 @@
         <v>0.7801773732608193</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7414799316992704</v>
+        <v>0.7401809047638115</v>
       </c>
       <c r="M3" t="n">
         <v>0.6050944581328428</v>
@@ -607,7 +607,7 @@
         <v>0.7326164215926239</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7088701277621434</v>
+        <v>0.7074074074074074</v>
       </c>
       <c r="M4" t="n">
         <v>0.5352941176470588</v>
@@ -665,7 +665,7 @@
         <v>0.780177373260819</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7808705382933501</v>
+        <v>0.7797696841910495</v>
       </c>
       <c r="M5" t="n">
         <v>0.5493203316759261</v>
@@ -723,7 +723,7 @@
         <v>0.780177373260819</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7808705382933501</v>
+        <v>0.7797696841910495</v>
       </c>
       <c r="M6" t="n">
         <v>0.5493203316759261</v>
@@ -781,7 +781,7 @@
         <v>0.7831550493332693</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7832122299475502</v>
+        <v>0.7821229050279329</v>
       </c>
       <c r="M7" t="n">
         <v>0.5411764705882354</v>

--- a/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_eval.xlsx
+++ b/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_eval.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -479,19 +546,19 @@
         <v>3.491723194523831</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6663994275646529</v>
+        <v>0.666399427564654</v>
       </c>
       <c r="I2" t="n">
-        <v>1.595556849813109</v>
+        <v>1.595556849813104</v>
       </c>
       <c r="J2" t="n">
-        <v>4.701148289548307</v>
+        <v>4.701148289548308</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7801773732608193</v>
+        <v>0.780177373260819</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7401809047638115</v>
+        <v>0.740180904763812</v>
       </c>
       <c r="M2" t="n">
         <v>0.6050944581328428</v>
@@ -537,19 +604,19 @@
         <v>3.491723194523831</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6663994275646529</v>
+        <v>0.666399427564654</v>
       </c>
       <c r="I3" t="n">
-        <v>1.595556849813109</v>
+        <v>1.595556849813104</v>
       </c>
       <c r="J3" t="n">
-        <v>4.701148289548307</v>
+        <v>4.701148289548308</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7801773732608193</v>
+        <v>0.780177373260819</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7401809047638115</v>
+        <v>0.740180904763812</v>
       </c>
       <c r="M3" t="n">
         <v>0.6050944581328428</v>
@@ -604,10 +671,10 @@
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7326164215926239</v>
+        <v>0.732616421592624</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7074074074074074</v>
+        <v>0.7074074074074075</v>
       </c>
       <c r="M4" t="n">
         <v>0.5352941176470588</v>
@@ -650,25 +717,25 @@
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>3.521731815875493</v>
+        <v>3.521731815875492</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9452175731243873</v>
+        <v>0.9452175731243877</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8322190755397068</v>
+        <v>0.8322190755397023</v>
       </c>
       <c r="J5" t="n">
-        <v>5.237174245609361</v>
+        <v>5.237174245609359</v>
       </c>
       <c r="K5" t="n">
-        <v>0.780177373260819</v>
+        <v>0.7801773732608189</v>
       </c>
       <c r="L5" t="n">
         <v>0.7797696841910495</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5493203316759261</v>
+        <v>0.5493203316759256</v>
       </c>
       <c r="N5" t="n">
         <v>0.4694178334561533</v>
@@ -680,10 +747,10 @@
         <v>84.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02351246133036473</v>
+        <v>0.02351246133036377</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6189327249996261</v>
+        <v>0.6189327249996265</v>
       </c>
     </row>
     <row r="6">
@@ -708,25 +775,25 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.521731815875493</v>
+        <v>3.521731815875492</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9452175731243873</v>
+        <v>0.9452175731243877</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8322190755397068</v>
+        <v>0.8322190755397023</v>
       </c>
       <c r="J6" t="n">
-        <v>5.237174245609361</v>
+        <v>5.237174245609359</v>
       </c>
       <c r="K6" t="n">
-        <v>0.780177373260819</v>
+        <v>0.7801773732608189</v>
       </c>
       <c r="L6" t="n">
         <v>0.7797696841910495</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5493203316759261</v>
+        <v>0.5493203316759256</v>
       </c>
       <c r="N6" t="n">
         <v>0.4694178334561533</v>
@@ -738,10 +805,10 @@
         <v>84.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02351246133036473</v>
+        <v>0.02351246133036377</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6189327249996261</v>
+        <v>0.6189327249996265</v>
       </c>
     </row>
     <row r="7">
@@ -781,7 +848,7 @@
         <v>0.7831550493332693</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7821229050279329</v>
+        <v>0.7821229050279331</v>
       </c>
       <c r="M7" t="n">
         <v>0.5411764705882354</v>
@@ -803,6 +870,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_eval.xlsx
+++ b/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_eval.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,89 +50,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -546,19 +479,19 @@
         <v>3.491723194523831</v>
       </c>
       <c r="H2" t="n">
-        <v>0.666399427564654</v>
+        <v>0.6663994275646529</v>
       </c>
       <c r="I2" t="n">
-        <v>1.595556849813104</v>
+        <v>1.595556849813109</v>
       </c>
       <c r="J2" t="n">
-        <v>4.701148289548308</v>
+        <v>4.701148289548307</v>
       </c>
       <c r="K2" t="n">
-        <v>0.780177373260819</v>
+        <v>0.7801773732608193</v>
       </c>
       <c r="L2" t="n">
-        <v>0.740180904763812</v>
+        <v>0.7401809047638115</v>
       </c>
       <c r="M2" t="n">
         <v>0.6050944581328428</v>
@@ -604,19 +537,19 @@
         <v>3.491723194523831</v>
       </c>
       <c r="H3" t="n">
-        <v>0.666399427564654</v>
+        <v>0.6663994275646529</v>
       </c>
       <c r="I3" t="n">
-        <v>1.595556849813104</v>
+        <v>1.595556849813109</v>
       </c>
       <c r="J3" t="n">
-        <v>4.701148289548308</v>
+        <v>4.701148289548307</v>
       </c>
       <c r="K3" t="n">
-        <v>0.780177373260819</v>
+        <v>0.7801773732608193</v>
       </c>
       <c r="L3" t="n">
-        <v>0.740180904763812</v>
+        <v>0.7401809047638115</v>
       </c>
       <c r="M3" t="n">
         <v>0.6050944581328428</v>
@@ -671,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.732616421592624</v>
+        <v>0.7326164215926239</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7074074074074075</v>
+        <v>0.7074074074074074</v>
       </c>
       <c r="M4" t="n">
         <v>0.5352941176470588</v>
@@ -717,25 +650,25 @@
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>3.521731815875492</v>
+        <v>3.521731815875493</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9452175731243877</v>
+        <v>0.9452175731243873</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8322190755397023</v>
+        <v>0.8322190755397068</v>
       </c>
       <c r="J5" t="n">
-        <v>5.237174245609359</v>
+        <v>5.237174245609361</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7801773732608189</v>
+        <v>0.780177373260819</v>
       </c>
       <c r="L5" t="n">
         <v>0.7797696841910495</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5493203316759256</v>
+        <v>0.5493203316759261</v>
       </c>
       <c r="N5" t="n">
         <v>0.4694178334561533</v>
@@ -747,10 +680,10 @@
         <v>84.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02351246133036377</v>
+        <v>0.02351246133036473</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6189327249996265</v>
+        <v>0.6189327249996261</v>
       </c>
     </row>
     <row r="6">
@@ -775,25 +708,25 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.521731815875492</v>
+        <v>3.521731815875493</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9452175731243877</v>
+        <v>0.9452175731243873</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8322190755397023</v>
+        <v>0.8322190755397068</v>
       </c>
       <c r="J6" t="n">
-        <v>5.237174245609359</v>
+        <v>5.237174245609361</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7801773732608189</v>
+        <v>0.780177373260819</v>
       </c>
       <c r="L6" t="n">
         <v>0.7797696841910495</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5493203316759256</v>
+        <v>0.5493203316759261</v>
       </c>
       <c r="N6" t="n">
         <v>0.4694178334561533</v>
@@ -805,10 +738,10 @@
         <v>84.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02351246133036377</v>
+        <v>0.02351246133036473</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6189327249996265</v>
+        <v>0.6189327249996261</v>
       </c>
     </row>
     <row r="7">
@@ -848,7 +781,7 @@
         <v>0.7831550493332693</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7821229050279331</v>
+        <v>0.7821229050279329</v>
       </c>
       <c r="M7" t="n">
         <v>0.5411764705882354</v>
@@ -870,6 +803,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>